--- a/JSON-String-To-Excel/customers.xlsx
+++ b/JSON-String-To-Excel/customers.xlsx
@@ -29,46 +29,46 @@
     <t>1</t>
   </si>
   <si>
-    <t>Jack Smith</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
+    <t>Ravishankar Kumar</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Adam Johnson</t>
-  </si>
-  <si>
-    <t>New York</t>
+    <t>Chulbul Yadav</t>
+  </si>
+  <si>
+    <t>Motihari</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Katherin Carter</t>
-  </si>
-  <si>
-    <t>Washington DC</t>
+    <t>Mirchae Devi</t>
+  </si>
+  <si>
+    <t>Buxcer</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Jack London</t>
-  </si>
-  <si>
-    <t>Nevada</t>
+    <t>Deepak Jha</t>
+  </si>
+  <si>
+    <t>Mithila</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>California</t>
+    <t>Shilpa Rani</t>
+  </si>
+  <si>
+    <t>Nala Road</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="3">
